--- a/data/trans_dic/P38C-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,39; 89,23</t>
+          <t>82,3; 89,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,52; 88,89</t>
+          <t>81,44; 88,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,38; 94,26</t>
+          <t>88,24; 94,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>86,27; 91,8</t>
+          <t>85,94; 91,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,96; 90,74</t>
+          <t>85,68; 90,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,67; 89,62</t>
+          <t>84,5; 89,48</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,6; 89,5</t>
+          <t>82,34; 89,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,77; 89,05</t>
+          <t>81,48; 88,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,44; 91,11</t>
+          <t>84,6; 91,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,21; 90,6</t>
+          <t>84,29; 90,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,21; 89,49</t>
+          <t>84,57; 89,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,67; 88,88</t>
+          <t>83,87; 88,77</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>83,13; 89,28</t>
+          <t>83,15; 89,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,68; 87,97</t>
+          <t>19,92; 87,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,22; 92,7</t>
+          <t>82,2; 93,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,53; 95,11</t>
+          <t>86,93; 94,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,03; 89,21</t>
+          <t>83,97; 88,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,21; 89,13</t>
+          <t>26,82; 89,16</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,55; 85,82</t>
+          <t>81,26; 85,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,21; 84,29</t>
+          <t>77,35; 84,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,23; 88,09</t>
+          <t>83,23; 88,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,74; 95,51</t>
+          <t>87,72; 95,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,88; 86,16</t>
+          <t>83,07; 86,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,44; 90,39</t>
+          <t>83,61; 90,57</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,94; 83,22</t>
+          <t>76,84; 83,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>74,44; 83,1</t>
+          <t>74,73; 83,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,15; 89,4</t>
+          <t>84,21; 89,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,34; 89,86</t>
+          <t>59,76; 90,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>81,63; 85,68</t>
+          <t>81,69; 85,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,65; 86,15</t>
+          <t>66,94; 86,18</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>48,01; 60,39</t>
+          <t>48,31; 60,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,87; 56,98</t>
+          <t>35,34; 57,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>84,84; 89,21</t>
+          <t>85,05; 89,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>78,97; 85,13</t>
+          <t>78,82; 84,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>78,32; 82,43</t>
+          <t>78,06; 82,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>69,56; 77,32</t>
+          <t>69,61; 77,26</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>80,22; 82,88</t>
+          <t>80,29; 83,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>55,62; 81,03</t>
+          <t>56,56; 80,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86,27; 88,6</t>
+          <t>86,29; 88,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80,45; 88,76</t>
+          <t>80,25; 88,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>83,71; 85,4</t>
+          <t>83,66; 85,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>70,0; 84,33</t>
+          <t>68,55; 84,21</t>
         </is>
       </c>
     </row>
@@ -1171,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que le han medido los niveles de glucosal por prescripción médica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>367786</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>431484</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>317088</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>399156</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>684874</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>830640</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>352370; 381816</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>410248; 446389</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>305330; 325315</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>384563; 409807</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>663314; 700866</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>803753; 851166</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>320850</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>386054</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>326561</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>335302</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>647412</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>721356</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>307101; 332954</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>368464; 401254</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>313232; 338606</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>322474; 347057</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>628533; 664699</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>700145; 741018</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>447053</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>368044</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>145752</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>153155</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>592805</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>521199</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>430644; 462073</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>133097; 586820</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>135829; 153995</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>145088; 158327</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>573654; 607702</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>224009; 744628</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1118</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2082</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>953694</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>842394</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>705052</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>889115</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1658746</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1731508</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>925410; 975922</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>800453; 870476</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>683563; 723364</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>857249; 931309</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1628349; 1690310</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1682196; 1822301</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1173</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1616</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>491929</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>376269</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>640238</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>688646</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1132168</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1064915</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>471830; 512133</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>355020; 396404</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>619813; 656573</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>502773; 757938</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1102855; 1157693</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>881178; 1134465</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1023</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1077</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>151556</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>111974</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>938022</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>619465</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1089579</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>731439</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>134812; 169166</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>84997; 139062</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>915009; 959644</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>594970; 639416</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1057644; 1118421</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>692861; 769046</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2805</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>2873</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>4739</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>5486</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>7544</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2732869</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2516218</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3072714</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3084839</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>5805584</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5601057</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2690418; 2782071</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1908693; 2728217</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3033117; 3111830</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2865109; 3176235</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5743896; 5868590</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>4760658; 5847988</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P38C-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P38C-Clase-trans_dic.xlsx
@@ -992,7 +992,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
